--- a/Proyecto_Fundamentos_Programación/Datos_Prueba_Modelo_Real_Predicho.xlsx
+++ b/Proyecto_Fundamentos_Programación/Datos_Prueba_Modelo_Real_Predicho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +610,7 @@
         <v>828</v>
       </c>
       <c r="U2" t="n">
-        <v>398.4114999999996</v>
+        <v>372.8349311368447</v>
       </c>
     </row>
     <row r="3">
@@ -683,7 +683,7 @@
         <v>828</v>
       </c>
       <c r="U3" t="n">
-        <v>433.7118999999995</v>
+        <v>387.5479228950215</v>
       </c>
     </row>
     <row r="4">
@@ -756,7 +756,7 @@
         <v>1242</v>
       </c>
       <c r="U4" t="n">
-        <v>425.5736999999999</v>
+        <v>370.8418554257889</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>1242</v>
       </c>
       <c r="U5" t="n">
-        <v>425.5736999999999</v>
+        <v>370.8418554257889</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         <v>1170</v>
       </c>
       <c r="U6" t="n">
-        <v>915.2685000000018</v>
+        <v>909.5583877056274</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +975,7 @@
         <v>1170</v>
       </c>
       <c r="U7" t="n">
-        <v>889.9804000000007</v>
+        <v>1132.948502797619</v>
       </c>
     </row>
     <row r="8">
@@ -1048,7 +1048,7 @@
         <v>1170</v>
       </c>
       <c r="U8" t="n">
-        <v>1476.789999999998</v>
+        <v>1423.007042996032</v>
       </c>
     </row>
     <row r="9">
@@ -1121,7 +1121,7 @@
         <v>1170</v>
       </c>
       <c r="U9" t="n">
-        <v>1167.6127</v>
+        <v>1271.898696805556</v>
       </c>
     </row>
     <row r="10">
@@ -1194,7 +1194,7 @@
         <v>1284</v>
       </c>
       <c r="U10" t="n">
-        <v>978.1162000000005</v>
+        <v>1171.397658419312</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>1284</v>
       </c>
       <c r="U11" t="n">
-        <v>1639.475499999998</v>
+        <v>1419.876644969715</v>
       </c>
     </row>
     <row r="12">
@@ -1340,7 +1340,7 @@
         <v>1284</v>
       </c>
       <c r="U12" t="n">
-        <v>1302.975399999999</v>
+        <v>1313.720008895503</v>
       </c>
     </row>
     <row r="13">
@@ -1413,7 +1413,7 @@
         <v>1170</v>
       </c>
       <c r="U13" t="n">
-        <v>950.9702000000018</v>
+        <v>930.661999074675</v>
       </c>
     </row>
     <row r="14">
@@ -1486,7 +1486,7 @@
         <v>1284</v>
       </c>
       <c r="U14" t="n">
-        <v>1024.798000000001</v>
+        <v>1004.259692408008</v>
       </c>
     </row>
     <row r="15">
@@ -1559,7 +1559,7 @@
         <v>1080</v>
       </c>
       <c r="U15" t="n">
-        <v>866.5905000000014</v>
+        <v>851.5726276587301</v>
       </c>
     </row>
     <row r="16">
@@ -1632,7 +1632,7 @@
         <v>1440</v>
       </c>
       <c r="U16" t="n">
-        <v>937.5902000000001</v>
+        <v>538.7907776754134</v>
       </c>
     </row>
     <row r="17">
@@ -1705,7 +1705,7 @@
         <v>1212</v>
       </c>
       <c r="U17" t="n">
-        <v>892.2164000000002</v>
+        <v>381.86894068968</v>
       </c>
     </row>
     <row r="18">
@@ -1778,7 +1778,7 @@
         <v>1260</v>
       </c>
       <c r="U18" t="n">
-        <v>1106.28</v>
+        <v>828.1076748737377</v>
       </c>
     </row>
     <row r="19">
@@ -1851,7 +1851,7 @@
         <v>1440</v>
       </c>
       <c r="U19" t="n">
-        <v>608.9789666666666</v>
+        <v>515.7403822828479</v>
       </c>
     </row>
     <row r="20">
@@ -1924,7 +1924,7 @@
         <v>1440</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.5886</v>
+        <v>1524.629804107142</v>
       </c>
     </row>
     <row r="21">
@@ -1997,7 +1997,7 @@
         <v>1768</v>
       </c>
       <c r="U21" t="n">
-        <v>1046.355860000001</v>
+        <v>830.0720290476191</v>
       </c>
     </row>
     <row r="22">
@@ -2070,7 +2070,7 @@
         <v>1080</v>
       </c>
       <c r="U22" t="n">
-        <v>3354.633275</v>
+        <v>1813.104992568813</v>
       </c>
     </row>
     <row r="23">
@@ -2143,7 +2143,7 @@
         <v>1080</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.404099999999</v>
+        <v>1726.986902355858</v>
       </c>
     </row>
     <row r="24">
@@ -2184,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="L24" t="n">
         <v>6.39</v>
@@ -2216,7 +2216,737 @@
         <v>1080</v>
       </c>
       <c r="U24" t="n">
-        <v>2968.1556</v>
+        <v>1762.679988273808</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Fold 3</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4400</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>120</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2208</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1768</v>
+      </c>
+      <c r="U25" t="n">
+        <v>916.3417991666668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>samsung</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Fold 3</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>120</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2208</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1768</v>
+      </c>
+      <c r="U26" t="n">
+        <v>916.3417991666668</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro Max (256GB)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>bionic</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4352</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>120</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2778</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1284</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1307.944130725657</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (512GB)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>bionic</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3279</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>60</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2532</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1170</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1235.217985844155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (512GB)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>bionic</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4325</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>60</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ios</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2778</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1284</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1235.217985844155</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>asus</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Asus ROG Phone 6 Pro 5G</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>18</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="M30" t="n">
+        <v>165</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2448</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1080</v>
+      </c>
+      <c r="U30" t="n">
+        <v>939.3217915674602</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>huawei</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Huawei Mate 50 Pro 5G</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>kirin</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="M31" t="n">
+        <v>120</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>13</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3200</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U31" t="n">
+        <v>758.018545637273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>huawei</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Huawei Mate 50 RS Porsche Design</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4700</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="M32" t="n">
+        <v>120</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2616</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1212</v>
+      </c>
+      <c r="U32" t="n">
+        <v>737.8144605055987</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>leitz</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Leitz Phone 2</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>240</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>13</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2730</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1260</v>
+      </c>
+      <c r="U33" t="n">
+        <v>912.8113449711403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>oppo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OPPO X 2021</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>snapdragon</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>60</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>android</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>16</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3200</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1135.686325669191</v>
       </c>
     </row>
   </sheetData>
